--- a/OpenCartDefectReport.xlsx
+++ b/OpenCartDefectReport.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Defect Id.</t>
   </si>
@@ -919,7 +919,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4053,11 +4053,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4389,9 +4389,6 @@
       </c>
       <c r="N6" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="P6" s="22" t="s">
         <v>45</v>
@@ -5004,33 +5001,6 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="1:25" s="18" customFormat="1">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
